--- a/classfiers/mega/svm/mega-svm-poly-results.xlsx
+++ b/classfiers/mega/svm/mega-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7610619469026549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9913754480286738</v>
+        <v>0.9913932221624528</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978718637992832</v>
+        <v>0.9975793437331899</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.984009009009009</v>
+        <v>0.978808311545342</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9758636467627545</v>
+        <v>0.9746800605476813</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8953841823810864</v>
+        <v>0.8964645336906015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7146276595744681</v>
+        <v>0.7165961945031712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7265501223790796</v>
+        <v>0.7263629213882059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9898239935199442</v>
+        <v>0.9884921875977332</v>
       </c>
     </row>
   </sheetData>
